--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H2">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,10 +555,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="N2">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.818571155842</v>
+        <v>0.437449470955</v>
       </c>
       <c r="R2">
-        <v>7.367140402578</v>
+        <v>3.937045238595</v>
       </c>
       <c r="S2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="T2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1.135769</v>
       </c>
       <c r="I3">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J3">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,10 +617,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="N3">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.026070441626</v>
+        <v>0.02508093443388889</v>
       </c>
       <c r="R3">
-        <v>0.234633974634</v>
+        <v>0.225728409905</v>
       </c>
       <c r="S3">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="T3">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H4">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I4">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J4">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,10 +679,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="N4">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.243204355522</v>
+        <v>0.2279928000211111</v>
       </c>
       <c r="R4">
-        <v>2.188839199698</v>
+        <v>2.05193520019</v>
       </c>
       <c r="S4">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="T4">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H5">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I5">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J5">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,10 +741,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="N5">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.283931660676</v>
+        <v>0.1612953029877778</v>
       </c>
       <c r="R5">
-        <v>2.555384946084</v>
+        <v>1.45165772689</v>
       </c>
       <c r="S5">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="T5">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
     </row>
   </sheetData>
